--- a/Заказы_Github_test.xlsx
+++ b/Заказы_Github_test.xlsx
@@ -10,8 +10,6 @@
   <sheets>
     <sheet name="Заказы" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Пассажиры" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Лист4" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Лист3" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="192">
   <si>
     <t xml:space="preserve">Дата</t>
   </si>
@@ -608,211 +606,12 @@
   <si>
     <t xml:space="preserve">89650100036</t>
   </si>
-  <si>
-    <t xml:space="preserve">Пункт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Время
-принятия
-заказа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Количество
-на складе</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вес</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Цена опт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Заказанное
-количество</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сумма</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Итоговая
-сумма
-заказа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195/55R16 87T Nokian Hakkapeliitta 8 Flat Run шип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195 60 15 Firestone шип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">шип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НЕТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Доступно 120 шин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195/60R15 88T Vredestein Arctrac шип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195/60R15 92T Gislaved NordFrost100 XL шип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205/70R15 96T General Snow Grabber шип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/55R18 99T Nokian Hakkapeliitta 7 SUV шип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/55R18 99T Nokian Hakkapeliitta 8 SUV шип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/60R16 99T Marangoni 4 Ice E+ шип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/45R17 94T Gislaved NordFrost100 шип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/55R18 102T Nokian Hakkapeliitta 7 SUV шип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/65R17 102T Gislaved NordFrost100 шип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235/65R17 108T Marangoni 4 Ice E+ DA шип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">265 65 17 Continental Viking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">285/35R19 103H Nokian Hakkapeliitta 8 шип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">285/45R19 111T Nokian Hakkapeliitta 7 SUV XL шип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Служебная
-графа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">275/70R16 114T Nokian Nordman 5 SUV SUV шип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooper-Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/60R16 PIRELLI W160S+   27,2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">???</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/45R17 PIRELLI зима</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НЕТ ТАКИХ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">185/60R14 82T Bridgestone LM30   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">185/65R14 86T Bridgestone LM30   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">185/70R14 88T Bridgestone LM20   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">195/60R15 88S Firestone Winterforce шип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195/65R15 91T Firestone Winhawk 2 Evo   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">205/60R15 91H Matador MP 92 Sibir Snow   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/60R17C 109/107R Nokian Hakkapeliitta CR Van   (ЭТО НЕ ШИП, а ЛИПУЧКА -- ФРИКЦИОННАЯ!)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/55R18 102T Nokian Nordman 5 SUV шип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/60R17 99T Nokian Hakkapeliitta 7 SUV Flat Run шип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235/55R18 100H Bridgestone LM25 4x4   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235/60R18 107H Sportiva Snow Winter 4x4 XL   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">265/70R17 115T Nokian Nordman 5 SUV шип</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="14">
+  <numFmts count="13">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="MM/DD/YY\ H:MM;@"/>
     <numFmt numFmtId="166" formatCode="#,##0\ [$руб.-419];[RED]\-#,##0\ [$руб.-419]"/>
@@ -826,9 +625,8 @@
     <numFmt numFmtId="174" formatCode="0.00"/>
     <numFmt numFmtId="175" formatCode="MM/DD/YYYY"/>
     <numFmt numFmtId="176" formatCode="DD/MMM"/>
-    <numFmt numFmtId="177" formatCode="#,##0&quot; ₽&quot;"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -964,38 +762,8 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1068,14 +836,8 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF33CCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1138,13 +900,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1174,7 +929,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="128">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1687,170 +1442,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1898,7 +1489,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00B0F0"/>
+      <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFEBF1DE"/>
       <rgbColor rgb="FFFFFF99"/>
@@ -1935,7 +1526,7 @@
   <dimension ref="A1:R1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2026,7 +1617,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2081,7 +1673,8 @@
 245/65R17 111T Nokian Hakkapeliitta 5 SUV шип   2      15,3    5341,626 руб.
 проданы по 5550 руб.   2 шт.   за 11100 руб.   прибыль: 420 руб.
 Заказчик: Алексей   Тел.: 89602699560   E-mail: 
-Ввоз ПН, заберёт во ВТ утром. Ждёт увед.</v>
+Ввоз ПН, заберёт во ВТ утром. Ждёт увед.
+</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2156,7 +1749,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2175,7 +1769,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2194,7 +1789,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2213,7 +1809,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2232,7 +1829,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2251,7 +1849,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2270,7 +1869,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2289,7 +1889,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2308,7 +1909,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2330,7 +1932,8 @@
 Артикул:    
 ЧС ФР:              руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2349,7 +1952,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2408,7 +2012,8 @@
 215/85R16LT Mastercraft Courser R/D   115/112Q   16,8   9    2950 руб.
 проданы по 3250 руб.   8 шт.   за 26000 руб.   прибыль: 1400 руб.
 Заказчик: Руслан   Тел.: 89187087778   E-mail: вотсап
-Подтвердить в понедельник возможность отгрузки. И обязательно подтвердить заказ. Заберут с Бестуж. в ПН вечером либо ВТ. Доп.тел: 89260127998. …11.04(10:30)-ввоз подтвержден - сегодня-завтра заберут. …12.04(9:55)-подъедут водители, сегодня должны. …14.04(18:30)-подъедет завтра. ...18.04(18:25)-не ответил. ...(20:45)-заберут завтра-послезавтра. ...25.04(11:15)-сегодня подъедет. ...26.04(11:00)-на похоронах - наберет чуть попозже. ...05.05(18:40)-перечислит средства на карту 10.05 или раньше. ...13.05(13:00)-12-го числа его человек перевел сумму 5000 или 10000 - сейчас уточнит платежку. ...19.05(17:30)-не ответил. перезвонил - заболел, оплатит завтра-послезавтра. ...23.05(17:30)-не ответил. (19:15)-ПЕРЕЗВОНИЛ - лежит в больнице - выйдет в четверг, а сейчас договорится, чтобы друзья оплатили - отправленны реквизиты карты повторно. ...25.05(12:40)-выходит завтра из больницы и сразу оплатит. ...27.05(14:05)-выписался - перенес платеж на ПН. ...30.05(19:55)-не ответил. ...01.06(16:20)-не ответил по обоим тел. ...01.06(20:00)-должен завтра подъехать за всеми 8 колесами. ...02.06(16:45)-89215752040, Валерий. Отправка ПЭКом во Владикавказ, получатель: Синдиров Руслан Иванович. ...03.06(12:45)-должен оплатить на карту буквально в течение двух-трех часов. (13:40)-оплатил 25000р. +1000р переведет на телефон (чек в вотсапе) ...06.06(16:40)-отправлена ТН в вотсап - ждем 1000р. ... Присутствует последующая крайне-оскорбительная переписка в вотсапе.</v>
+Подтвердить в понедельник возможность отгрузки. И обязательно подтвердить заказ. Заберут с Бестуж. в ПН вечером либо ВТ. Доп.тел: 89260127998. …11.04(10:30)-ввоз подтвержден - сегодня-завтра заберут. …12.04(9:55)-подъедут водители, сегодня должны. …14.04(18:30)-подъедет завтра. ...18.04(18:25)-не ответил. ...(20:45)-заберут завтра-послезавтра. ...25.04(11:15)-сегодня подъедет. ...26.04(11:00)-на похоронах - наберет чуть попозже. ...05.05(18:40)-перечислит средства на карту 10.05 или раньше. ...13.05(13:00)-12-го числа его человек перевел сумму 5000 или 10000 - сейчас уточнит платежку. ...19.05(17:30)-не ответил. перезвонил - заболел, оплатит завтра-послезавтра. ...23.05(17:30)-не ответил. (19:15)-ПЕРЕЗВОНИЛ - лежит в больнице - выйдет в четверг, а сейчас договорится, чтобы друзья оплатили - отправленны реквизиты карты повторно. ...25.05(12:40)-выходит завтра из больницы и сразу оплатит. ...27.05(14:05)-выписался - перенес платеж на ПН. ...30.05(19:55)-не ответил. ...01.06(16:20)-не ответил по обоим тел. ...01.06(20:00)-должен завтра подъехать за всеми 8 колесами. ...02.06(16:45)-89215752040, Валерий. Отправка ПЭКом во Владикавказ, получатель: Синдиров Руслан Иванович. ...03.06(12:45)-должен оплатить на карту буквально в течение двух-трех часов. (13:40)-оплатил 25000р. +1000р переведет на телефон (чек в вотсапе) ...06.06(16:40)-отправлена ТН в вотсап - ждем 1000р. ... Присутствует последующая крайне-оскорбительная переписка в вотсапе.
+</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2467,7 +2072,8 @@
 245/45R18 100W Antares INGENS A1   100W   12,1   &gt;40    4651,53846153846 руб.
 проданы по 4940 руб.   2 шт.   за 9880 руб.   прибыль: -9880 руб.
 Заказчик: Петр   Тел.: 89025070007   E-mail: petr.garasimiv@yandex.ru
-Отправка в Архангельск ТК ПЭК получатель Петр Остапович Гарасымив …08.07(11:15)-уведомлен о сегодняшней отправке - ждет ТН. …11.07(09:20)-неправильный адрес электропочты для отправки ТН. (18:25)-сейчас скинет точный e-mail. Пока не скинул. (21:10)-не ответил. ...12.07(16:35)-набрал сам меня случайно, при перезвоне не ответил. ...12.07(20:15)-отправлено смс с реквизитами. ...14.07(15:00)-не ответил с другого телефона. (16:30)-не ответил. ...15.07(13:40)-не ответил. при перезвоне вне зоны. (13:45)-снял, сказал: "Да?" и замолчал - молчал минуту, потом связь прервалась. При перезвоне недоступен. ВОЗМОЖНО, ОН ПЬЯН. (13:55)-НЕ ОТВЕТИЛ. (16:15)(19:10)-не ответил. ...17.07(16:13)-прислал случайное смс. при перезвоне снял, сказал: "Да?" - и его телефон выключился. (16:35)-сбросил. ...18.07(14:30)-сбросил. (18:20)-ответил с другого телефона, сказал алё, слушать не стал и повесил трубку. ...Гореть ему в аду. ...Возврат? ...Все еще оформляется возврат. ...16.08(17:00)-шины забраны и не оплачены. - не отвечает. работает ОБЭП? ...не отвечает по всем доступным контактам. ...должен 9880 рублей.</v>
+Отправка в Архангельск ТК ПЭК получатель Петр Остапович Гарасымив …08.07(11:15)-уведомлен о сегодняшней отправке - ждет ТН. …11.07(09:20)-неправильный адрес электропочты для отправки ТН. (18:25)-сейчас скинет точный e-mail. Пока не скинул. (21:10)-не ответил. ...12.07(16:35)-набрал сам меня случайно, при перезвоне не ответил. ...12.07(20:15)-отправлено смс с реквизитами. ...14.07(15:00)-не ответил с другого телефона. (16:30)-не ответил. ...15.07(13:40)-не ответил. при перезвоне вне зоны. (13:45)-снял, сказал: "Да?" и замолчал - молчал минуту, потом связь прервалась. При перезвоне недоступен. ВОЗМОЖНО, ОН ПЬЯН. (13:55)-НЕ ОТВЕТИЛ. (16:15)(19:10)-не ответил. ...17.07(16:13)-прислал случайное смс. при перезвоне снял, сказал: "Да?" - и его телефон выключился. (16:35)-сбросил. ...18.07(14:30)-сбросил. (18:20)-ответил с другого телефона, сказал алё, слушать не стал и повесил трубку. ...Гореть ему в аду. ...Возврат? ...Все еще оформляется возврат. ...16.08(17:00)-шины забраны и не оплачены. - не отвечает. работает ОБЭП? ...не отвечает по всем доступным контактам. ...должен 9880 рублей.
+</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2524,7 +2130,8 @@
 185/75R16C 104/102R Vredestein Comtrac      12,365   4    5729,66775 руб.
 проданы по 5940 руб.   4 шт.   за 23760 руб.   прибыль: 850 руб.
 Заказчик: Павел   Тел.: 89051143889   E-mail: 
-Ввоз сейчас, выгрузить по пути на склад на ул. Ушинского,7 сегодня до 21-22 часов. ВЫПОЛНИМО? (По складу только 4шт. числятся.) …23.02/12:10/-везем 4шт. …24.02/11:35/-ждёт доставку. …КИДОК на -4000 рублей + сумма возврата. ...(Павел сообщил, что сам на зоне и ему деньги нужнее. Согласия на пользование деньгами не получал. Разрешения не спрашивал.) ... На текущий час /22.03.2017 : 16:30/ остаётся вором. Проблема решением не уПрощена.</v>
+Ввоз сейчас, выгрузить по пути на склад на ул. Ушинского,7 сегодня до 21-22 часов. ВЫПОЛНИМО? (По складу только 4шт. числятся.) …23.02/12:10/-везем 4шт. …24.02/11:35/-ждёт доставку. …КИДОК на -4000 рублей + сумма возврата. ...(Павел сообщил, что сам на зоне и ему деньги нужнее. Согласия на пользование деньгами не получал. Разрешения не спрашивал.) ... На текущий час /22.03.2017 : 16:30/ остаётся вором. Проблема решением не уПрощена.
+</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2553,7 +2160,8 @@
 Артикул:    
 НА КОНТРОЛЕ:              руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2572,7 +2180,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2616,7 +2225,8 @@
 185/65R15 92T Nokian Hakkapeliitta 8 шип              руб.
 проданы по  руб.   4 шт.   за 0 руб.   прибыль: 0 руб.
 Заказчик: Сергей   Тел.: 89214165803   E-mail: 
-предзаказ</v>
+предзаказ
+</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2673,7 +2283,8 @@
 185/70R14 88T Vredestein Arctrac шип      2   7,715    2210,2785 руб.
 проданы по 2410 руб.   4 шт.   за 9640 руб.   прибыль: 800 руб.
 Заказчик: Александр   Тел.: 89217563172   E-mail: samsin78@mail.ru
-нет в наличии - оставил в презаказе. (Заказ: №1-11/10/16)</v>
+нет в наличии - оставил в презаказе. (Заказ: №1-11/10/16)
+</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2722,7 +2333,8 @@
 195/70R15C 104/102R Hercules Winter HSI-       11,15   1    2450 руб.
 проданы по 2640 руб.   4 шт.   за 10560 руб.   прибыль: 760 руб.
 Заказчик:    Тел.: 89062301219   E-mail: 
-предзаказ. Всесезон бюджет!</v>
+предзаказ. Всесезон бюджет!
+</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2778,7 +2390,8 @@
 205/55R16 91H Vredestein Sportrac 5      8,4   1    4156,25 руб.
 проданы по 4350 руб.   0 шт.   за 0 руб.   прибыль: 0 руб.
 Заказчик: Илья   Тел.: 89216484017   E-mail: 
-Подтвердить одиночку завтра утром. Заберет завтра с Бест - уведомите о ввозе. …24.08(10:55)-ввоз подтвержден - заберет сегодня - уведомите. …закончились( заказывал и у Вики.) …24.08(17:35)-уведомлен, что колеса пока не будет. Будет ждать, если появится. предзаказ.</v>
+Подтвердить одиночку завтра утром. Заберет завтра с Бест - уведомите о ввозе. …24.08(10:55)-ввоз подтвержден - заберет сегодня - уведомите. …закончились( заказывал и у Вики.) …24.08(17:35)-уведомлен, что колеса пока не будет. Будет ждать, если появится. предзаказ.
+</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2820,7 +2433,8 @@
 205/55R16 91T Nokian Hakkapeliitta 7              руб.
 проданы по  руб.   4 шт.   за 0 руб.   прибыль: 0 руб.
 Заказчик: Светлана   Тел.:    E-mail: 
-предзаказ</v>
+предзаказ
+</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2882,7 +2496,8 @@
 205/55R16 94T Nokian Hakkapeliitta 7 шип   94   T   9,5  4  5161,25 руб.
 проданы по 5350 руб.   4 шт.   за 21400 руб.   прибыль: 760 руб.
 Заказчик: Александр   Тел.: 89027979719   E-mail: aleksandr45900@mail.ru
-ИМЕННО ФИНСКУЮ. Отправка в Пермь ТК ПЭК. Получатель: Касьянов Александр Юрьевич. Доп.тел.: 89091157914. …шин нет. …22.07(10:00)-Оставил в предзаказе.</v>
+ИМЕННО ФИНСКУЮ. Отправка в Пермь ТК ПЭК. Получатель: Касьянов Александр Юрьевич. Доп.тел.: 89091157914. …шин нет. …22.07(10:00)-Оставил в предзаказе.
+</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2936,7 +2551,8 @@
 205/60R16 96T Vredestein Arctrac XL ШИП      9,4   1    4232,5 руб.
 проданы по 4300 руб.   4 шт.   за 17200 руб.   прибыль: 270 руб.
 Заказчик: Михаил (от Голубева)   Тел.: 89213767664   E-mail: 
-ПРЕДЗАКАЗ. Узнать наличие.</v>
+ПРЕДЗАКАЗ. Узнать наличие.
+</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2982,7 +2598,8 @@
 205/60R16 Nokian Hakkapeliitta 7 шип              руб.
 проданы по 5600 руб.   4 шт.   за 22400 руб.   прибыль: 22400 руб.
 Заказчик: Динар   Тел.: 89217900238   E-mail: 
-предзаказ</v>
+предзаказ
+</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3037,7 +2654,8 @@
 215/65R16 102T Vredestein Arctrac XL  шип      11,2   1    3925 руб.
 проданы по 4120 руб.   1 шт.   за 4120 руб.   прибыль: 200 руб.
 Заказчик: Сергей   Тел.: 89516641169   E-mail: 
-Заберет завтра в Бест. Ждет уведомления. Нужна именно 1шт. …закончились. …оставил в предзаказе.</v>
+Заберет завтра в Бест. Ждет уведомления. Нужна именно 1шт. …закончились. …оставил в предзаказе.
+</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3086,7 +2704,8 @@
 215/65R16 102T Vredestein Arctrac XL  шип             3925 руб.
 проданы по 4120 руб.   4 шт.   за 16480 руб.   прибыль: 780 руб.
 Заказчик: Дмитрий   Тел.: 89219359151   E-mail: 
-предзаказ</v>
+предзаказ
+</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3138,7 +2757,8 @@
 225/45R17 94T Vredestein Arctrac XL ШИП      10,25   1    3125 руб.
 проданы по 3320 руб.   4 шт.   за 13280 руб.   прибыль: 780 руб.
 Заказчик: Виктор   Тел.: 89013020294   E-mail: 
-предзаказ</v>
+предзаказ
+</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3187,7 +2807,8 @@
 225/45R17 98T Gislaved NordFrost100             5850 руб.
 проданы по 6040 руб.   4 шт.   за 24160 руб.   прибыль: 760 руб.
 Заказчик: Алексей   Тел.: 89119279161   E-mail: 
-предзаказ</v>
+предзаказ
+</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3241,7 +2862,8 @@
 225/45R18 95T Nokian Hakkapeliitta 8 XL Flat Run шип ЛИБО 245/40R18 95T Nokian Hakkapeliitta 8 XL Flat Run      2   12,4    17321,6062 руб.
 проданы по 17630 руб.   4 шт.   за 70520 руб.   прибыль: 1240 руб.
 Заказчик: Владимир   Тел.: 89219439636   E-mail: 
-предзаказ</v>
+предзаказ
+</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3280,7 +2902,8 @@
 225/45R18 95T Nokian Hakkapeliitta 8 XL шип              руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
 Заказчик: Дмитрий   Тел.:    E-mail: 
-предзаказ. Отправка в Сургут.</v>
+предзаказ. Отправка в Сургут.
+</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3336,7 +2959,8 @@
 225/50R17 98T Bridgestone BLIZZAK SPIKE-01 XL шип      12,9   1    6209,1117 руб.
 проданы по 6420 руб.   0 шт.   за 0 руб.   прибыль: 0 руб.
 Заказчик: Павел   Тел.: 89118286583   E-mail: 
-предзаказ …12.11/19:35/-уже купил.</v>
+предзаказ …12.11/19:35/-уже купил.
+</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3391,7 +3015,8 @@
 225/70R16 107T Nokian Rotiiva A/T XL      12,5   4    3889,25 руб.
 проданы по 4080 руб.   4 шт.   за 16320 руб.   прибыль: 770 руб.
 Заказчик: Сергей   Тел.: 89219583763   E-mail: 
-Заберет послезавтра 11.08 в 9 утра. Уведомите завтра о ввозе. Привезли шипованные. Шин нет? Шин не привезли. По словам Марка - ждет.</v>
+Заберет послезавтра 11.08 в 9 утра. Уведомите завтра о ввозе. Привезли шипованные. Шин нет? Шин не привезли. По словам Марка - ждет.
+</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3445,7 +3070,8 @@
 235/40R18 95W Antares INGENS A1   95W   11,7   &gt;40    4301,92307692308 руб.
 проданы по 4590 руб.   1 шт.   за 4590 руб.   прибыль: 290 руб.
 Заказчик: Юрий   Тел.: 89259123424   E-mail: 
-предзаказ в Сергиев Посад</v>
+предзаказ в Сергиев Посад
+</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3500,7 +3126,8 @@
 235/55R17 103T Gislaved NordFrost100 XL  шип      13,9   4    6150 руб.
 проданы по 6340 руб.   4 шт.   за 25360 руб.   прибыль: 800 руб.
 Заказчик: Денис   Тел.: 89219922254   E-mail: 
-Подтвердить, что Германия, 2015год.!!! Если совпадает - ввоз в ПН. Заберет с Бест. …пока проданы попробуем поймать на выходных. …10.10(10:20)-пока шин нет. …12.10(12:15)-интересовался ввозом. …шин нет. …12.10(13:05)-оставил в предзаказе.</v>
+Подтвердить, что Германия, 2015год.!!! Если совпадает - ввоз в ПН. Заберет с Бест. …пока проданы попробуем поймать на выходных. …10.10(10:20)-пока шин нет. …12.10(12:15)-интересовался ввозом. …шин нет. …12.10(13:05)-оставил в предзаказе.
+</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3555,7 +3182,8 @@
 235/55R17 103T Gislaved NordFrost100 XL  шип      13,9   4    6150 руб.
 проданы по 6340 руб.   4 шт.   за 25360 руб.   прибыль: 800 руб.
 Заказчик: Сергей   Тел.: 89052687474   E-mail: 
-предзаказ</v>
+предзаказ
+</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3596,7 +3224,8 @@
 235/55R18 100H Vredestein Arctrac              руб.
 проданы по  руб.   4 шт.   за 0 руб.   прибыль: 0 руб.
 Заказчик:    Тел.: 89184559241   E-mail: 
-предзаказ отправка в Ростов-на-Дону</v>
+предзаказ отправка в Ростов-на-Дону
+</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3648,7 +3277,8 @@
 235/55R18 100V Cooper C4S Touring Plus      14   &gt;40    5686,25 руб.
 проданы по 5960 руб.   4 шт.   за 23840 руб.   прибыль: 1100 руб.
 Заказчик:    Тел.: 89215827752   E-mail: 
-потен зш - перезвонит. Девушка.</v>
+потен зш - перезвонит. Девушка.
+</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3703,7 +3333,8 @@
 235/60R18 107H Sportiva Snow Winter 4x4 XL       14,46   38    3875 руб.
 проданы по 4170 руб.   4 шт.   за 16680 руб.   прибыль: 1180 руб.
 Заказчик: Сергей   Тел.: 89213122310   E-mail: 
-потен зш, приедет сегодня на склад посмотреть рисунки протектора.</v>
+потен зш, приедет сегодня на склад посмотреть рисунки протектора.
+</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3762,7 +3393,8 @@
 235/60R18 Sportiva Snow Winter 4x4 XL Германия   107H   14,46   &gt;40    4381,25 руб.
 проданы по 4470 руб.   8 шт.   за 35760 руб.   прибыль: 710 руб.
 Заказчик: Дмитрий   Тел.: 89199599001   E-mail: dim-tob1969@mail.ru
-Отправка в Тюмень ТК ПЭК. Получатель: Белоусов Дмитрий Александрович. …01.07(14:40)-заказ в силе, но проплата будет в середине будущей недели, он сам говорит, что проплачивает не своевременно и просит отправку сделать после оплаты. …25.07(13:50)-колеса нужны - наберет.</v>
+Отправка в Тюмень ТК ПЭК. Получатель: Белоусов Дмитрий Александрович. …01.07(14:40)-заказ в силе, но проплата будет в середине будущей недели, он сам говорит, что проплачивает не своевременно и просит отправку сделать после оплаты. …25.07(13:50)-колеса нужны - наберет.
+</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3805,7 +3437,8 @@
 235-245/45R17 лип             5000 руб.
 проданы по 6000 руб.   4 шт.   за 24000 руб.   прибыль: 4000 руб.
 Заказчик: Даниил   Тел.: 89185541925   E-mail: 
-предзаказ</v>
+предзаказ
+</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3860,7 +3493,8 @@
 245/40R18 93Y Yokohama Advan A13      12   39    6450 руб.
 проданы по 6740 руб.   4 шт.   за 26960 руб.   прибыль: 1160 руб.
 Заказчик: Наталья   Тел.: 89117012421   E-mail: 
-потен зш. Возможна доставка на Римского-Корсакова +500р. …22.08(10:15)-не ответила для подтверждения. …(10:35)-перезвонила, сказала, что еще решают и она обязательно позвонит.</v>
+потен зш. Возможна доставка на Римского-Корсакова +500р. …22.08(10:15)-не ответила для подтверждения. …(10:35)-перезвонила, сказала, что еще решают и она обязательно позвонит.
+</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3912,7 +3546,8 @@
 245/40R20 99Y Vredestein Ultrac Vorti XL      13,5   2    11475,3125 руб.
 проданы по 11770 руб.   4 шт.   за 47080 руб.   прибыль: 1180 руб.
 Заказчик:    Тел.: 89119215205   E-mail: 
-предзаказ</v>
+предзаказ
+</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3966,7 +3601,8 @@
 245/50R18 104T Nokian Hakkapeliitta 7-8 RFT шип      13,6   39    11850 руб.
 проданы по 12150 руб.   4 шт.   за 48600 руб.   прибыль: 1200 руб.
 Заказчик: Вячеслав   Тел.: 89174236084   E-mail:  bonee@bk.ru
-Предзаказ (Заказ: №2-15/09/16)</v>
+Предзаказ (Заказ: №2-15/09/16)
+</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4018,7 +3654,8 @@
 255/45R18 103Y Bridgestone RE040 XL      13,7   &gt;40    6450 руб.
 проданы по 6740 руб.   4 шт.   за 26960 руб.   прибыль: 1160 руб.
 Заказчик:    Тел.: 89112079144   E-mail: 
-потен зш. звонил в час ночи.</v>
+потен зш. звонил в час ночи.
+</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4070,7 +3707,8 @@
 255/50R19 107Y Cooper Discoverer HTS      15,2   &gt;40    7162,5 руб.
 проданы по 7450 руб.   4 шт.   за 29800 руб.   прибыль: 1150 руб.
 Заказчик:    Тел.: 89522827701   E-mail: 
-потен зш. выгрузить у Выборга. Подтвердить в ПН.</v>
+потен зш. выгрузить у Выборга. Подтвердить в ПН.
+</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4129,7 +3767,8 @@
 255/55R18 Apollo Apterra HP XL   109V   15,5   &gt;40    4925 руб.
 проданы по 5020 руб.   8 шт.   за 40160 руб.   прибыль: 760 руб.
 Заказчик: Дмитрий   Тел.: 89199599001   E-mail: dim-tob1969@mail.ru
-Отправка в Тюмень ТК ПЭК. Получатель: Белоусов Дмитрий Александрович. …01.07(14:40)-заказ в силе, но проплата будет в середине будущей недели, он сам говорит, что проплачивает не своевременно и просит отправку сделать после оплаты. …25.07(13:50)-колеса нужны - наберет.</v>
+Отправка в Тюмень ТК ПЭК. Получатель: Белоусов Дмитрий Александрович. …01.07(14:40)-заказ в силе, но проплата будет в середине будущей недели, он сам говорит, что проплачивает не своевременно и просит отправку сделать после оплаты. …25.07(13:50)-колеса нужны - наберет.
+</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4172,7 +3811,8 @@
 265/50R20 111T Nokian Hakkapeliitta 8 SUV шип      16,8   0     руб.
 проданы по  руб.   1 шт.   за 0 руб.   прибыль: 0 руб.
 Заказчик:    Тел.: 89852228099   E-mail: 
-предзаказ</v>
+предзаказ
+</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4209,7 +3849,8 @@
 265/60R18 Nokian Hakkapeliitta 8              руб.
 проданы по  руб.   4 шт.   за 0 руб.   прибыль: 0 руб.
 Заказчик: Вадим   Тел.: 89121414848   E-mail: 
-предзаказ. Безнал. +Договор. Отправка в Ухту.</v>
+предзаказ. Безнал. +Договор. Отправка в Ухту.
+</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4264,7 +3905,8 @@
 265/70R16 112T Matador MP 92 Sibir Snow       16,55   15    4212,5 руб.
 проданы по 4400 руб.   4 шт.   за 17600 руб.   прибыль: 750 руб.
 Заказчик: Сергей   Тел.: 89213122310   E-mail: 
-Хочет сегодня подъехать на склад - досогласовать. Ввоз в ПН. Заберет в ПН-ВТ. Уведомите, пож. ...Удостоверить его в СБ, что правильный протектор на Авито. …20.08(19:20)-перезвонить утром в ПН - хочет заказать еще 2 разных комплекта. …22.08(11:05)-не ответил для подтверждения. …23.08(13:30)-перезвонить завтра утром. ...24.08(12:30)-хочет еще для жены комплект строкой ниже. приедет на склад в ПТ 26.08.</v>
+Хочет сегодня подъехать на склад - досогласовать. Ввоз в ПН. Заберет в ПН-ВТ. Уведомите, пож. ...Удостоверить его в СБ, что правильный протектор на Авито. …20.08(19:20)-перезвонить утром в ПН - хочет заказать еще 2 разных комплекта. …22.08(11:05)-не ответил для подтверждения. …23.08(13:30)-перезвонить завтра утром. ...24.08(12:30)-хочет еще для жены комплект строкой ниже. приедет на склад в ПТ 26.08.
+</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4316,7 +3958,8 @@
 265/70R17 115R Nokian Hakkapeliitta R SUV       16,9   2    5420 руб.
 проданы по 5610 руб.   4 шт.   за 22440 руб.   прибыль: 760 руб.
 Заказчик: Максим   Тел.: 89212506573   E-mail: 
-предзаказ, возможна доставка к Мурманскому шоссе.</v>
+предзаказ, возможна доставка к Мурманскому шоссе.
+</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4371,7 +4014,8 @@
 265/70R17 115T Nokian Nordman SUV шип      17,9   50    4597,84125 руб.
 проданы по 4790 руб.   2 шт.   за 9580 руб.   прибыль: 400 руб.
 Заказчик: Александр   Тел.: 89119147208   E-mail: 
-Заберет в Бест в ЧТ, по мере ввоза фурой. …11.10-новая партия 15-го года подорожала. …шины пока закончились. …13.10(12:55)-оставил в предзаказе.</v>
+Заберет в Бест в ЧТ, по мере ввоза фурой. …11.10-новая партия 15-го года подорожала. …шины пока закончились. …13.10(12:55)-оставил в предзаказе.
+</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4415,7 +4059,8 @@
 265/70R17 115T Nokian Nordman SUV шип              руб.
 проданы по  руб.   2 шт.   за 0 руб.   прибыль: 0 руб.
 Заказчик: Александр   Тел.: 89030970692   E-mail: 
-предзаказ. Нужны 2 шт, т.к. 2 уже есть.</v>
+предзаказ. Нужны 2 шт, т.к. 2 уже есть.
+</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4470,7 +4115,8 @@
 265/70R17 121/118Q Roadstone Roadian A/T II      19,965   1    6471,375 руб.
 проданы по 6660 руб.   1 шт.   за 6660 руб.   прибыль: 190 руб.
 Заказчик: Руслан   Тел.: 89119246066   E-mail: 
-Говорит, что заберет точно, но желательно подтвердиться утром. Заберет завтра с Бест. Желательно пораньше. Уведомите. …02.08(10:00)-пока приостановка - уехал в Финку - перезвонит.</v>
+Говорит, что заберет точно, но желательно подтвердиться утром. Заберет завтра с Бест. Желательно пораньше. Уведомите. …02.08(10:00)-пока приостановка - уехал в Финку - перезвонит.
+</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4525,7 +4171,8 @@
 275/40R20 106T Nokian Hakkapeliitta 5 SUV ШИП      16,2   1    8083,8125 руб.
 проданы по 8370 руб.   1 шт.   за 8370 руб.   прибыль: 290 руб.
 Заказчик: Андрей   Тел.: 89219666798   E-mail: 
-Заберет с Бест именно одно. Ждет уведомления. Если вдруг есть 2 штуки - везем две по доп.согласованию. …вчера не ввезли - закончились, могут появиться через 3 дня. ...06.09(10:30)-недоступен. (12:35)-оставить пока в предзаказе.</v>
+Заберет с Бест именно одно. Ждет уведомления. Если вдруг есть 2 штуки - везем две по доп.согласованию. …вчера не ввезли - закончились, могут появиться через 3 дня. ...06.09(10:30)-недоступен. (12:35)-оставить пока в предзаказе.
+</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4564,7 +4211,8 @@
 275/45R20 115T Nokian Hakkapeliitta 7 - 8              руб.
 проданы по 12300 руб.   4 шт.   за 49200 руб.   прибыль:  руб.
 Заказчик:    Тел.: 89875330801   E-mail: 
-предзаказ в Нижний Новгород</v>
+предзаказ в Нижний Новгород
+</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4600,7 +4248,8 @@
 275/45R20 115T Nokian Hakkapeliitta 7 - 8              руб.
 проданы по 12300 руб.   4 шт.   за 49200 руб.   прибыль:  руб.
 Заказчик: Юрий   Тел.: 89117610000   E-mail: 
-предзаказ</v>
+предзаказ
+</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4640,7 +4289,8 @@
 275/45R20 115T Nokian Hakkapeliitta 8              руб.
 проданы по 13600 руб.   4 шт.   за 54400 руб.   прибыль: 54400 руб.
 Заказчик: Игорь   Тел.: 89219635745   E-mail: 
-предзаказ</v>
+предзаказ
+</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4694,7 +4344,8 @@
 275/50 надо (а не 60!!!) R20 117T (Hankook i Pike RW11 шип)         24    8850 руб.
 проданы по 9140 руб.   0 шт.   за 0 руб.   прибыль: 0 руб.
 Заказчик: Алексей   Тел.: 89106478704   E-mail: 
-Ввезти нужно именно сегодня. Сможем? … шины еще в фуре едут. …02.09(12:30)-не ответил. …02.09(15:15)-говорит везите в любом случае. Ждем поступления для согласования ввоза и доставки по городу. …перепутал профиль - надо 275 50 20. В предзаказе оставил пока.</v>
+Ввезти нужно именно сегодня. Сможем? … шины еще в фуре едут. …02.09(12:30)-не ответил. …02.09(15:15)-говорит везите в любом случае. Ждем поступления для согласования ввоза и доставки по городу. …перепутал профиль - надо 275 50 20. В предзаказе оставил пока.
+</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4731,7 +4382,8 @@
 275/55R20 115T Nokian Hakkapeliitta 7 SUV XL шип              руб.
 проданы по  руб.   4 шт.   за 0 руб.   прибыль: 0 руб.
 Заказчик: Марат   Тел.: 89117573333   E-mail: 
-предзаказ</v>
+предзаказ
+</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4765,7 +4417,8 @@
 275/55R20 115T Nokian Hakkapeliitta 7 SUV XL шип              руб.
 проданы по  руб.   4 шт.   за 0 руб.   прибыль: 0 руб.
 Заказчик:    Тел.: 89213488026   E-mail: 
-предзаказ</v>
+предзаказ
+</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4809,7 +4462,8 @@
 275/60R20 (Hankook i Pike RW11 шип)             8850 руб.
 проданы по 9140 руб.   4 шт.   за 36560 руб.   прибыль: 1160 руб.
 Заказчик: Марина   Тел.: 89217843788   E-mail: 
-предзаказ. Доп.тел.: 88125526616</v>
+предзаказ. Доп.тел.: 88125526616
+</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4861,7 +4515,8 @@
 285/50R20 116T Nokian Hakkapeliitta 8 SUV XL ШИП      18,1   &gt;40    14212,7375 руб.
 проданы по 14500 руб.   4 шт.   за 58000 руб.   прибыль: 1150 руб.
 Заказчик:    Тел.: 89872549797   E-mail: 
-Безнал - выставить счет +3,5%. Отправка в Уфу. ...Не прислали реквизиты.</v>
+Безнал - выставить счет +3,5%. Отправка в Уфу. ...Не прислали реквизиты.
+</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4898,7 +4553,8 @@
 285/50R20 116T Nokian Hakkapeliitta 8 SUV шип              руб.
 проданы по  руб.   4 шт.   за 0 руб.   прибыль: 0 руб.
 Заказчик: Андрей   Тел.: 89112573878   E-mail: 
-предзаказ</v>
+предзаказ
+</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4939,7 +4595,8 @@
 295/35R21 107T Nokian Hakkapeliitta R или R2              руб.
 проданы по  руб.   4 шт.   за 0 руб.   прибыль: 0 руб.
 Заказчик:    Тел.: 89213008361   E-mail: 
-предзаказ</v>
+предзаказ
+</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4976,7 +4633,8 @@
 295/40R21 107T Nokian Hakkapeliitta 8              руб.
 проданы по  руб.   4 шт.   за 0 руб.   прибыль: 0 руб.
 Заказчик: Максим   Тел.: 89217349191   E-mail: 
-предзаказ</v>
+предзаказ
+</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5027,7 +4685,8 @@
 295/40R21 107T Nokian Hakkapeliitta R или R2      17,1   8    17135,4125 руб.
 проданы по 17430 руб.   4 шт.   за 69720 руб.   прибыль: 1180 руб.
 Заказчик: Руслан   Тел.: 89255070002   E-mail: 
-предзаказ доставка в Нальчик</v>
+предзаказ доставка в Нальчик
+</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5075,7 +4734,8 @@
 295/40R21 107T Nokian Hakkapeliitta R или R2 SUV XL шип      17,1   8    17135,4125 руб.
 проданы по 17430 руб.   4 шт.   за 69720 руб.   прибыль: 1180 руб.
 Заказчик:    Тел.: 89816982955   E-mail: 
-предзаказ доставка в Шушары</v>
+предзаказ доставка в Шушары
+</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5118,7 +4778,8 @@
 Автошина Vredestein Sportrac 5 235/55 R18 100V              руб.
 проданы по 8090 руб.   2 шт.   за 16180 руб.   прибыль: 16180 руб.
 Заказчик: Григорий   Тел.: 89194930388   E-mail: plz@bk.ru
-предзаказ Отправка в Пермь ТК КИТ. Получатель: паспорт: 5703 376079 от 19.09.02 . (Заказ: №1-28/07/16). …пока нет в наличии.</v>
+предзаказ Отправка в Пермь ТК КИТ. Получатель: паспорт: 5703 376079 от 19.09.02 . (Заказ: №1-28/07/16). …пока нет в наличии.
+</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5161,7 +4822,8 @@
 255/45R18 103Y Nokian Hakka Z XL             6500 руб.
 проданы по 6800 руб.   4 шт.   за 27200 руб.   прибыль: 1200 руб.
 Заказчик: Равиль   Тел.: 89216635313   E-mail: 
-предзаказ, отправка в Мурманск</v>
+предзаказ, отправка в Мурманск
+</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5180,7 +4842,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5199,7 +4862,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5218,7 +4882,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5237,7 +4902,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="79" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5259,7 +4925,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="80" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5281,7 +4948,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="81" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5303,7 +4971,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="82" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5325,7 +4994,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="83" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5347,7 +5017,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="84" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5369,7 +5040,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="85" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5391,7 +5063,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="86" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5413,7 +5086,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="87" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5435,7 +5109,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="88" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5457,7 +5132,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="89" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5479,7 +5155,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="90" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5501,7 +5178,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="91" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5523,7 +5201,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="92" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5545,7 +5224,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="93" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5567,7 +5247,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="94" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5589,7 +5270,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="95" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5611,7 +5293,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="96" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5633,7 +5316,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="97" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5655,7 +5339,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="98" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5677,7 +5362,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="99" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5699,7 +5385,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="100" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5721,7 +5408,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="101" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5743,7 +5431,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="102" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5765,7 +5454,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="103" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5787,7 +5477,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="104" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5809,7 +5500,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="105" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5831,7 +5523,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="106" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5853,7 +5546,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="107" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5875,7 +5569,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="108" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5897,7 +5592,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="109" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5919,7 +5615,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="110" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5941,7 +5638,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="111" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5963,7 +5661,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="112" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5985,7 +5684,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="113" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6007,7 +5707,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="114" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6029,7 +5730,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="115" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6051,7 +5753,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="116" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6073,7 +5776,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="117" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6095,7 +5799,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="118" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6117,7 +5822,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="119" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6139,7 +5845,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="120" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6161,7 +5868,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="121" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6183,7 +5891,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="122" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6205,7 +5914,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="123" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6227,7 +5937,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="124" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6249,7 +5960,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="125" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6271,7 +5983,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="126" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6293,7 +6006,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="127" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6315,7 +6029,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="128" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6337,7 +6052,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="129" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6359,7 +6075,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="130" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6381,7 +6098,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="131" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6403,7 +6121,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="132" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6425,7 +6144,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="133" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6447,7 +6167,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="134" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6469,7 +6190,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="135" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6491,7 +6213,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="136" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6513,7 +6236,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="137" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6535,7 +6259,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="138" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6557,7 +6282,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="139" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6579,7 +6305,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="140" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6601,7 +6328,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="141" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6623,7 +6351,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="142" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6645,7 +6374,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="143" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6667,7 +6397,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="144" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6689,7 +6420,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="145" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6711,7 +6443,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="146" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6733,7 +6466,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="147" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6755,7 +6489,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="148" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6777,7 +6512,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="149" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6799,7 +6535,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="150" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6821,7 +6558,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="151" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6843,7 +6581,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="152" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6865,7 +6604,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="153" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6887,7 +6627,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="154" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6909,7 +6650,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="155" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6931,7 +6673,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="156" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6953,7 +6696,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="157" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6975,7 +6719,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="158" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6997,7 +6742,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="159" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7019,7 +6765,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="160" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7041,7 +6788,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="161" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7063,7 +6811,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="162" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7085,7 +6834,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="163" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7107,7 +6857,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="164" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7129,7 +6880,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="165" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7151,7 +6903,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="166" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7173,7 +6926,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="167" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7195,7 +6949,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="168" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7217,7 +6972,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="169" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7239,7 +6995,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="170" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7261,7 +7018,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="171" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7283,7 +7041,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="172" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7305,7 +7064,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="173" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7327,7 +7087,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="174" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7349,7 +7110,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="175" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7371,7 +7133,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="176" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7393,7 +7156,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="177" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7415,7 +7179,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="178" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7437,7 +7202,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="179" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7459,7 +7225,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="180" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7481,7 +7248,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="181" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7503,7 +7271,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="182" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7525,7 +7294,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="183" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7547,7 +7317,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="184" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7569,7 +7340,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="185" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7591,7 +7363,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="186" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7613,7 +7386,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="187" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7635,7 +7409,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="188" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7657,7 +7432,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="189" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7679,7 +7455,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="190" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7701,7 +7478,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="191" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7723,7 +7501,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="192" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7745,7 +7524,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="193" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7767,7 +7547,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="194" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7789,7 +7570,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="195" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7811,7 +7593,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="196" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7833,7 +7616,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="197" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7855,7 +7639,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="198" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7877,7 +7662,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="199" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7899,7 +7685,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="200" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7921,7 +7708,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="201" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7943,7 +7731,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="202" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7965,7 +7754,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="203" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7987,7 +7777,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="204" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8009,7 +7800,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="205" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8031,7 +7823,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="206" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8053,7 +7846,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="207" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8075,7 +7869,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="208" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8097,7 +7892,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="209" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8119,7 +7915,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="210" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8141,7 +7938,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="211" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8163,7 +7961,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="212" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8185,7 +7984,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="213" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8207,7 +8007,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="214" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8229,7 +8030,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="215" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8251,7 +8053,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="216" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8273,7 +8076,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="217" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8295,7 +8099,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="218" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8317,7 +8122,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="219" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8339,7 +8145,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="220" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8361,7 +8168,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="221" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8383,7 +8191,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="222" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8405,7 +8214,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="223" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8427,7 +8237,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="224" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8449,7 +8260,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="225" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8471,7 +8283,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="226" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8493,7 +8306,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="227" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8515,7 +8329,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="228" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8537,7 +8352,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="229" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8559,7 +8375,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="230" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8581,7 +8398,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="231" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8603,7 +8421,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="232" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8625,7 +8444,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="233" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8647,7 +8467,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="234" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8669,7 +8490,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="235" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8691,7 +8513,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="236" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8713,7 +8536,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="237" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8735,7 +8559,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="238" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8757,7 +8582,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="239" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8779,7 +8605,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="240" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8801,7 +8628,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="241" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8823,7 +8651,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="242" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8845,7 +8674,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="243" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8867,7 +8697,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="244" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8889,7 +8720,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="245" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8911,7 +8743,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="246" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8933,7 +8766,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="247" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8955,7 +8789,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="248" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8977,7 +8812,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="249" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8999,7 +8835,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="250" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9021,7 +8858,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="251" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9043,7 +8881,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="252" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9065,7 +8904,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="253" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9087,7 +8927,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="254" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9109,7 +8950,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="255" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9131,7 +8973,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="256" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9153,7 +8996,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="257" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9175,7 +9019,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="258" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9197,7 +9042,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="259" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9219,7 +9065,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="260" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9241,7 +9088,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="261" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9263,7 +9111,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="262" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9285,7 +9134,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="263" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9307,7 +9157,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="264" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9329,7 +9180,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="265" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9351,7 +9203,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="266" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9373,7 +9226,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="267" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9395,7 +9249,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="268" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9417,7 +9272,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="269" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9439,7 +9295,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="270" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9461,7 +9318,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="271" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9483,7 +9341,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="272" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9505,7 +9364,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="273" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9527,7 +9387,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="274" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9549,7 +9410,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="275" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9571,7 +9433,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="276" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9593,7 +9456,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="277" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9615,7 +9479,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="278" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9637,7 +9502,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="279" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9659,7 +9525,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="280" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9681,7 +9548,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="281" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9703,7 +9571,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="282" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9725,7 +9594,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="283" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9747,7 +9617,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="284" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9769,7 +9640,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="285" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9791,7 +9663,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="286" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9813,7 +9686,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="287" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9835,7 +9709,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="288" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9857,7 +9732,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="289" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9879,7 +9755,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="290" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9901,7 +9778,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="291" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9923,7 +9801,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="292" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9945,7 +9824,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="293" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9967,7 +9847,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="294" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9989,7 +9870,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="295" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10011,7 +9893,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="296" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10033,7 +9916,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="297" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10055,7 +9939,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="298" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10077,7 +9962,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="299" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10099,7 +9985,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="300" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10121,7 +10008,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="301" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10143,7 +10031,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="302" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10165,7 +10054,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="303" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10187,7 +10077,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="304" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10209,7 +10100,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="305" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10231,7 +10123,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="306" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10253,7 +10146,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="307" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10275,7 +10169,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="308" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10297,7 +10192,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="309" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10319,7 +10215,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="310" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10341,7 +10238,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="311" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10363,7 +10261,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="312" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10385,7 +10284,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="313" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10407,7 +10307,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="314" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10429,7 +10330,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="315" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10451,7 +10353,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="316" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10473,7 +10376,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="317" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10495,7 +10399,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="318" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10517,7 +10422,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="319" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10539,7 +10445,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="320" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10561,7 +10468,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="321" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10583,7 +10491,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="322" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10605,7 +10514,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="323" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10627,7 +10537,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="324" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10649,7 +10560,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="325" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10671,7 +10583,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="326" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10693,7 +10606,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="327" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10715,7 +10629,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="328" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10737,7 +10652,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="329" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10759,7 +10675,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="330" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10781,7 +10698,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="331" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10803,7 +10721,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="332" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10825,7 +10744,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="333" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10847,7 +10767,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="334" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10869,7 +10790,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="335" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10891,7 +10813,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="336" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10913,7 +10836,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="337" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10935,7 +10859,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="338" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10957,7 +10882,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="339" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10979,7 +10905,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="340" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11001,7 +10928,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="341" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11023,7 +10951,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="342" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11045,7 +10974,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="343" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11067,7 +10997,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="344" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11089,7 +11020,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="345" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11111,7 +11043,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="346" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11133,7 +11066,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="347" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11155,7 +11089,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="348" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11177,7 +11112,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="349" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11199,7 +11135,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="350" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11221,7 +11158,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="351" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11243,7 +11181,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="352" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11265,7 +11204,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="353" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11287,7 +11227,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="354" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11309,7 +11250,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="355" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11331,7 +11273,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="356" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11353,7 +11296,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="357" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11375,7 +11319,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="358" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11397,7 +11342,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="359" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11419,7 +11365,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="360" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11441,7 +11388,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="361" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11463,7 +11411,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="362" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11485,7 +11434,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="363" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11507,7 +11457,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="364" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11529,7 +11480,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="365" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11551,7 +11503,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="366" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11573,7 +11526,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="367" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11595,7 +11549,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="368" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11617,7 +11572,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="369" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11639,7 +11595,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="370" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11661,7 +11618,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="371" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11683,7 +11641,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="372" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11705,7 +11664,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="373" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11727,7 +11687,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="374" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11749,7 +11710,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="375" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11771,7 +11733,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="376" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11793,7 +11756,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="377" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11815,7 +11779,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="378" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11837,7 +11802,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="379" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11859,7 +11825,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="380" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11881,7 +11848,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="381" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11903,7 +11871,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="382" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11925,7 +11894,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="383" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11947,7 +11917,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="384" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11969,7 +11940,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="385" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11991,7 +11963,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="386" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12013,7 +11986,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="387" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12035,7 +12009,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="388" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12057,7 +12032,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="389" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12079,7 +12055,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="390" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12101,7 +12078,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="391" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12123,7 +12101,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="392" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12145,7 +12124,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="393" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12167,7 +12147,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="394" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12189,7 +12170,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="395" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12211,7 +12193,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="396" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12233,7 +12216,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="397" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12255,7 +12239,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="398" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12277,7 +12262,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="399" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12299,7 +12285,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="400" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12321,7 +12308,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="401" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12343,7 +12331,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="402" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12365,7 +12354,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="403" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12387,7 +12377,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="404" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12409,7 +12400,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="405" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12431,7 +12423,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="406" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12453,7 +12446,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="407" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12475,7 +12469,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="408" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12497,7 +12492,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="409" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12519,7 +12515,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="410" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12541,7 +12538,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="411" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12563,7 +12561,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="412" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12585,7 +12584,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="413" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12607,7 +12607,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="414" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12629,7 +12630,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="415" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12651,7 +12653,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="416" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12673,7 +12676,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="417" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12695,7 +12699,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="418" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12717,7 +12722,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="419" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12739,7 +12745,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="420" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12761,7 +12768,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="421" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12783,7 +12791,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="422" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12805,7 +12814,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="423" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12827,7 +12837,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="424" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12849,7 +12860,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="425" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12871,7 +12883,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="426" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12893,7 +12906,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="427" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12915,7 +12929,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="428" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12937,7 +12952,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="429" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12959,7 +12975,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="430" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12981,7 +12998,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="431" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13003,7 +13021,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="432" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13025,7 +13044,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="433" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13047,7 +13067,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="434" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13069,7 +13090,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="435" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13091,7 +13113,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="436" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13113,7 +13136,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="437" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13135,7 +13159,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="438" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13157,7 +13182,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="439" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13179,7 +13205,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="440" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13201,7 +13228,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="441" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13223,7 +13251,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="442" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13245,7 +13274,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="443" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13267,7 +13297,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="444" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13289,7 +13320,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="445" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13311,7 +13343,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="446" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13333,7 +13366,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="447" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13355,7 +13389,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="448" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13377,7 +13412,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="449" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13399,7 +13435,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="450" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13421,7 +13458,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="451" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13443,7 +13481,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="452" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13465,7 +13504,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="453" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13487,7 +13527,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="454" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13509,7 +13550,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="455" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13531,7 +13573,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="456" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13553,7 +13596,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="457" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13575,7 +13619,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="458" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13597,7 +13642,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="459" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13619,7 +13665,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="460" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13641,7 +13688,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="461" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13663,7 +13711,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="462" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13685,7 +13734,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="463" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13707,7 +13757,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="464" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13729,7 +13780,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="465" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13751,7 +13803,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="466" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13773,7 +13826,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="467" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13795,7 +13849,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="468" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13817,7 +13872,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="469" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13839,7 +13895,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="470" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13861,7 +13918,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="471" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13883,7 +13941,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="472" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13905,7 +13964,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="473" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13927,7 +13987,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="474" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13949,7 +14010,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="475" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13971,7 +14033,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="476" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13993,7 +14056,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="477" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14015,7 +14079,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="478" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14037,7 +14102,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="479" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14059,7 +14125,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="480" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14081,7 +14148,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="481" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14103,7 +14171,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="482" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14125,7 +14194,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="483" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14147,7 +14217,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="484" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14169,7 +14240,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="485" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14191,7 +14263,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="486" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14213,7 +14286,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="487" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14235,7 +14309,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="488" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14257,7 +14332,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="489" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14279,7 +14355,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="490" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14301,7 +14378,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="491" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14323,7 +14401,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="492" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14345,7 +14424,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="493" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14367,7 +14447,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="494" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14389,7 +14470,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="495" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14411,7 +14493,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="496" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14433,7 +14516,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="497" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14455,7 +14539,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="498" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14477,7 +14562,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="499" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14499,7 +14585,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="500" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14521,7 +14608,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="501" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14543,7 +14631,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="502" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14565,7 +14654,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="503" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14587,7 +14677,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="504" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14609,7 +14700,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="505" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14631,7 +14723,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="506" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14653,7 +14746,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="507" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14675,7 +14769,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="508" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14697,7 +14792,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="509" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14719,7 +14815,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="510" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14741,7 +14838,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="511" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14763,7 +14861,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="512" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14785,7 +14884,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="513" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14807,7 +14907,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="514" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14829,7 +14930,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="515" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14851,7 +14953,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="516" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14873,7 +14976,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="517" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14895,7 +14999,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="518" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14917,7 +15022,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="519" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14939,7 +15045,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="520" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14961,7 +15068,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="521" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14983,7 +15091,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="522" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15005,7 +15114,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="523" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15027,7 +15137,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="524" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15049,7 +15160,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="525" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15071,7 +15183,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="526" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15093,7 +15206,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="527" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15115,7 +15229,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="528" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15137,7 +15252,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="529" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15159,7 +15275,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="530" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15181,7 +15298,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="531" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15203,7 +15321,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="532" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15225,7 +15344,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="533" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15247,7 +15367,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="534" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15269,7 +15390,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="535" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15291,7 +15413,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="536" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15313,7 +15436,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="537" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15335,7 +15459,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="538" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15357,7 +15482,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="539" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15379,7 +15505,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="540" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15401,7 +15528,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="541" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15423,7 +15551,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="542" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15445,7 +15574,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="543" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15467,7 +15597,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="544" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15489,7 +15620,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="545" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15511,7 +15643,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="546" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15533,7 +15666,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="547" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15555,7 +15689,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="548" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15577,7 +15712,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="549" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15599,7 +15735,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="550" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15621,7 +15758,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="551" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15643,7 +15781,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="552" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15665,7 +15804,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="553" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15687,7 +15827,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="554" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15709,7 +15850,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="555" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15731,7 +15873,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="556" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15753,7 +15896,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="557" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15775,7 +15919,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="558" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15797,7 +15942,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="559" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15819,7 +15965,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="560" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15841,7 +15988,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="561" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15863,7 +16011,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="562" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15885,7 +16034,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="563" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15907,7 +16057,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="564" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15929,7 +16080,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="565" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15951,7 +16103,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="566" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15973,7 +16126,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="567" s="3" customFormat="true" ht="18.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15995,7 +16149,8 @@
 Артикул:    
               руб.
 проданы по  руб.    шт.   за 0 руб.   прибыль: 0 руб.
-Заказчик:    Тел.:    E-mail:</v>
+Заказчик:    Тел.:    E-mail: 
+</v>
       </c>
     </row>
     <row r="1044729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -20678,1209 +20833,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L16"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="128" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="128" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="129" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="129" width="117.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="128" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="128" width="6.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="128" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="128" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="128" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="128" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="128" width="13.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="130" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="128" width="9.14"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="136" customFormat="true" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="131" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="132" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" s="131" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="131" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="132" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131" t="s">
-        <v>196</v>
-      </c>
-      <c r="J1" s="133" t="s">
-        <v>197</v>
-      </c>
-      <c r="K1" s="134" t="s">
-        <v>198</v>
-      </c>
-      <c r="L1" s="135" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="137" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="139" t="n">
-        <v>2776</v>
-      </c>
-      <c r="D2" s="140" t="s">
-        <v>201</v>
-      </c>
-      <c r="E2" s="141" t="n">
-        <v>50</v>
-      </c>
-      <c r="F2" s="142"/>
-      <c r="G2" s="143" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="H2" s="144"/>
-      <c r="I2" s="145" t="n">
-        <v>3967.461</v>
-      </c>
-      <c r="J2" s="146" t="n">
-        <v>8</v>
-      </c>
-      <c r="K2" s="147" t="n">
-        <f aca="false">I2*J2</f>
-        <v>31739.688</v>
-      </c>
-      <c r="L2" s="148" t="n">
-        <f aca="false">SUM(K2:K97)</f>
-        <v>483105.558</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="137" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="138"/>
-      <c r="D3" s="149" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" s="150" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="150" t="s">
-        <v>204</v>
-      </c>
-      <c r="G3" s="150" t="s">
-        <v>205</v>
-      </c>
-      <c r="H3" s="128" t="s">
-        <v>206</v>
-      </c>
-      <c r="I3" s="151" t="n">
-        <v>2111</v>
-      </c>
-      <c r="J3" s="152" t="n">
-        <v>12</v>
-      </c>
-      <c r="K3" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="130" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="137" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="138"/>
-      <c r="C4" s="139" t="n">
-        <v>3259</v>
-      </c>
-      <c r="D4" s="140" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="141" t="n">
-        <v>50</v>
-      </c>
-      <c r="F4" s="142"/>
-      <c r="G4" s="143" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="H4" s="144"/>
-      <c r="I4" s="145" t="n">
-        <v>2645.496</v>
-      </c>
-      <c r="J4" s="146" t="n">
-        <v>20</v>
-      </c>
-      <c r="K4" s="147" t="n">
-        <f aca="false">I4*J4</f>
-        <v>52909.92</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="139" t="n">
-        <v>2425</v>
-      </c>
-      <c r="D5" s="140" t="s">
-        <v>211</v>
-      </c>
-      <c r="E5" s="141" t="n">
-        <v>50</v>
-      </c>
-      <c r="F5" s="142" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" s="143" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="H5" s="144"/>
-      <c r="I5" s="145" t="n">
-        <v>2758.248</v>
-      </c>
-      <c r="J5" s="146" t="n">
-        <v>20</v>
-      </c>
-      <c r="K5" s="147" t="n">
-        <f aca="false">I5*J5</f>
-        <v>55164.96</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="137" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="139" t="n">
-        <v>396</v>
-      </c>
-      <c r="D6" s="140" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="141" t="n">
-        <v>50</v>
-      </c>
-      <c r="F6" s="142"/>
-      <c r="G6" s="143" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="H6" s="144"/>
-      <c r="I6" s="145" t="n">
-        <v>2602.692</v>
-      </c>
-      <c r="J6" s="146" t="n">
-        <v>8</v>
-      </c>
-      <c r="K6" s="147" t="n">
-        <f aca="false">I6*J6</f>
-        <v>20821.536</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="137" t="s">
-        <v>214</v>
-      </c>
-      <c r="B7" s="138"/>
-      <c r="C7" s="139" t="n">
-        <v>3715</v>
-      </c>
-      <c r="D7" s="140" t="s">
-        <v>215</v>
-      </c>
-      <c r="E7" s="141" t="n">
-        <v>50</v>
-      </c>
-      <c r="F7" s="142"/>
-      <c r="G7" s="143" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="H7" s="144"/>
-      <c r="I7" s="145" t="n">
-        <v>4437</v>
-      </c>
-      <c r="J7" s="146" t="n">
-        <v>4</v>
-      </c>
-      <c r="K7" s="147" t="n">
-        <f aca="false">I7*J7</f>
-        <v>17748</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="137" t="s">
-        <v>216</v>
-      </c>
-      <c r="B8" s="138"/>
-      <c r="C8" s="139" t="n">
-        <v>2784</v>
-      </c>
-      <c r="D8" s="140" t="s">
-        <v>217</v>
-      </c>
-      <c r="E8" s="141" t="n">
-        <v>50</v>
-      </c>
-      <c r="F8" s="142"/>
-      <c r="G8" s="143" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="H8" s="144"/>
-      <c r="I8" s="145" t="n">
-        <v>5203.818</v>
-      </c>
-      <c r="J8" s="146" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" s="147" t="n">
-        <f aca="false">I8*J8</f>
-        <v>20815.272</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="137" t="s">
-        <v>218</v>
-      </c>
-      <c r="B9" s="138"/>
-      <c r="C9" s="139" t="n">
-        <v>388</v>
-      </c>
-      <c r="D9" s="140" t="s">
-        <v>219</v>
-      </c>
-      <c r="E9" s="141" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="142"/>
-      <c r="G9" s="143" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="H9" s="144" t="s">
-        <v>206</v>
-      </c>
-      <c r="I9" s="145" t="n">
-        <v>3200.904</v>
-      </c>
-      <c r="J9" s="152" t="n">
-        <v>4</v>
-      </c>
-      <c r="K9" s="147" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="137" t="s">
-        <v>220</v>
-      </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="139" t="n">
-        <v>2434</v>
-      </c>
-      <c r="D10" s="140" t="s">
-        <v>221</v>
-      </c>
-      <c r="E10" s="141" t="n">
-        <v>50</v>
-      </c>
-      <c r="F10" s="142" t="n">
-        <v>37</v>
-      </c>
-      <c r="G10" s="143" t="n">
-        <v>11</v>
-      </c>
-      <c r="H10" s="144"/>
-      <c r="I10" s="145" t="n">
-        <v>5094.72</v>
-      </c>
-      <c r="J10" s="146" t="n">
-        <v>12</v>
-      </c>
-      <c r="K10" s="147" t="n">
-        <f aca="false">I10*J10</f>
-        <v>61136.64</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="137" t="s">
-        <v>222</v>
-      </c>
-      <c r="B11" s="138"/>
-      <c r="C11" s="139" t="n">
-        <v>2856</v>
-      </c>
-      <c r="D11" s="140" t="s">
-        <v>223</v>
-      </c>
-      <c r="E11" s="141" t="n">
-        <v>50</v>
-      </c>
-      <c r="F11" s="142"/>
-      <c r="G11" s="143" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="H11" s="144"/>
-      <c r="I11" s="145" t="n">
-        <v>5221.044</v>
-      </c>
-      <c r="J11" s="146" t="n">
-        <v>12</v>
-      </c>
-      <c r="K11" s="147" t="n">
-        <f aca="false">I11*J11</f>
-        <v>62652.528</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="137" t="s">
-        <v>224</v>
-      </c>
-      <c r="B12" s="138"/>
-      <c r="C12" s="139" t="n">
-        <v>3787</v>
-      </c>
-      <c r="D12" s="140" t="s">
-        <v>225</v>
-      </c>
-      <c r="E12" s="141" t="n">
-        <v>50</v>
-      </c>
-      <c r="F12" s="142"/>
-      <c r="G12" s="143" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="H12" s="144"/>
-      <c r="I12" s="145" t="n">
-        <v>4557.582</v>
-      </c>
-      <c r="J12" s="146" t="n">
-        <v>8</v>
-      </c>
-      <c r="K12" s="147" t="n">
-        <f aca="false">I12*J12</f>
-        <v>36460.656</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="137" t="s">
-        <v>226</v>
-      </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="139" t="n">
-        <v>378</v>
-      </c>
-      <c r="D13" s="140" t="s">
-        <v>227</v>
-      </c>
-      <c r="E13" s="141" t="n">
-        <v>50</v>
-      </c>
-      <c r="F13" s="142"/>
-      <c r="G13" s="143" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="H13" s="144"/>
-      <c r="I13" s="145" t="n">
-        <v>3859.668</v>
-      </c>
-      <c r="J13" s="146" t="n">
-        <v>12</v>
-      </c>
-      <c r="K13" s="147" t="n">
-        <f aca="false">I13*J13</f>
-        <v>46316.016</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="137" t="s">
-        <v>228</v>
-      </c>
-      <c r="B14" s="138"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="154" t="s">
-        <v>229</v>
-      </c>
-      <c r="E14" s="155" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="155"/>
-      <c r="G14" s="156" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="H14" s="157" t="s">
-        <v>206</v>
-      </c>
-      <c r="I14" s="158" t="n">
-        <v>4323</v>
-      </c>
-      <c r="J14" s="152" t="n">
-        <v>4</v>
-      </c>
-      <c r="K14" s="147" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="137" t="s">
-        <v>230</v>
-      </c>
-      <c r="B15" s="138"/>
-      <c r="C15" s="139" t="n">
-        <v>3718</v>
-      </c>
-      <c r="D15" s="140" t="s">
-        <v>231</v>
-      </c>
-      <c r="E15" s="141" t="n">
-        <v>50</v>
-      </c>
-      <c r="F15" s="142"/>
-      <c r="G15" s="143" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="H15" s="144"/>
-      <c r="I15" s="145" t="n">
-        <v>6368.9085</v>
-      </c>
-      <c r="J15" s="146" t="n">
-        <v>4</v>
-      </c>
-      <c r="K15" s="147" t="n">
-        <f aca="false">I15*J15</f>
-        <v>25475.634</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="137" t="s">
-        <v>232</v>
-      </c>
-      <c r="B16" s="138"/>
-      <c r="C16" s="139" t="n">
-        <v>4017</v>
-      </c>
-      <c r="D16" s="140" t="s">
-        <v>233</v>
-      </c>
-      <c r="E16" s="141" t="n">
-        <v>50</v>
-      </c>
-      <c r="F16" s="142"/>
-      <c r="G16" s="143" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="H16" s="144"/>
-      <c r="I16" s="145" t="n">
-        <v>6483.0885</v>
-      </c>
-      <c r="J16" s="146" t="n">
-        <v>8</v>
-      </c>
-      <c r="K16" s="147" t="n">
-        <f aca="false">I16*J16</f>
-        <v>51864.708</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M19"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="128" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="128" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="129" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="129" width="117.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="128" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="128" width="6.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="128" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="128" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="128" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="128" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="128" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="128" width="13.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="130" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="128" width="9.14"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="136" customFormat="true" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="131" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="132" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" s="131" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="131" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="132" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131" t="s">
-        <v>196</v>
-      </c>
-      <c r="J1" s="132" t="s">
-        <v>234</v>
-      </c>
-      <c r="K1" s="133" t="s">
-        <v>197</v>
-      </c>
-      <c r="L1" s="134" t="s">
-        <v>198</v>
-      </c>
-      <c r="M1" s="135" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="137" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="159" t="n">
-        <v>2330</v>
-      </c>
-      <c r="D2" s="160" t="s">
-        <v>235</v>
-      </c>
-      <c r="E2" s="161" t="n">
-        <v>50</v>
-      </c>
-      <c r="F2" s="161"/>
-      <c r="G2" s="162" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="H2" s="163"/>
-      <c r="I2" s="164" t="n">
-        <v>3999</v>
-      </c>
-      <c r="J2" s="164" t="n">
-        <v>3999</v>
-      </c>
-      <c r="K2" s="146" t="n">
-        <v>8</v>
-      </c>
-      <c r="L2" s="147" t="n">
-        <f aca="false">J2*K2</f>
-        <v>31992</v>
-      </c>
-      <c r="M2" s="148" t="n">
-        <f aca="false">SUM(L2:L100)</f>
-        <v>450239.1896</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="137" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="129" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" s="149" t="s">
-        <v>237</v>
-      </c>
-      <c r="E3" s="150" t="n">
-        <v>40</v>
-      </c>
-      <c r="F3" s="150" t="s">
-        <v>204</v>
-      </c>
-      <c r="G3" s="150" t="s">
-        <v>205</v>
-      </c>
-      <c r="I3" s="151" t="n">
-        <v>3300</v>
-      </c>
-      <c r="J3" s="151" t="n">
-        <v>3300</v>
-      </c>
-      <c r="K3" s="146" t="n">
-        <v>8</v>
-      </c>
-      <c r="L3" s="147" t="n">
-        <f aca="false">J3*K3</f>
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="137" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="138"/>
-      <c r="C4" s="129" t="s">
-        <v>238</v>
-      </c>
-      <c r="D4" s="165" t="s">
-        <v>239</v>
-      </c>
-      <c r="H4" s="128" t="s">
-        <v>240</v>
-      </c>
-      <c r="I4" s="128" t="n">
-        <v>3300</v>
-      </c>
-      <c r="J4" s="128" t="n">
-        <v>3300</v>
-      </c>
-      <c r="K4" s="146" t="n">
-        <v>4</v>
-      </c>
-      <c r="L4" s="147" t="n">
-        <f aca="false">J4*K4</f>
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="139" t="n">
-        <v>451</v>
-      </c>
-      <c r="D5" s="166" t="s">
-        <v>241</v>
-      </c>
-      <c r="E5" s="141" t="n">
-        <v>50</v>
-      </c>
-      <c r="F5" s="141"/>
-      <c r="G5" s="143" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H5" s="167"/>
-      <c r="I5" s="168" t="n">
-        <v>1966.125</v>
-      </c>
-      <c r="J5" s="168" t="n">
-        <v>1966.125</v>
-      </c>
-      <c r="K5" s="146" t="n">
-        <v>8</v>
-      </c>
-      <c r="L5" s="147" t="n">
-        <f aca="false">J5*K5</f>
-        <v>15729</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="137" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="139" t="n">
-        <v>437</v>
-      </c>
-      <c r="D6" s="166" t="s">
-        <v>242</v>
-      </c>
-      <c r="E6" s="141" t="n">
-        <v>50</v>
-      </c>
-      <c r="F6" s="141"/>
-      <c r="G6" s="143" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="H6" s="167"/>
-      <c r="I6" s="168" t="n">
-        <v>1987.8995</v>
-      </c>
-      <c r="J6" s="168" t="n">
-        <v>1987.8995</v>
-      </c>
-      <c r="K6" s="146" t="n">
-        <v>8</v>
-      </c>
-      <c r="L6" s="147" t="n">
-        <f aca="false">J6*K6</f>
-        <v>15903.196</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="137" t="s">
-        <v>214</v>
-      </c>
-      <c r="B7" s="138"/>
-      <c r="C7" s="139" t="n">
-        <v>267</v>
-      </c>
-      <c r="D7" s="166" t="s">
-        <v>243</v>
-      </c>
-      <c r="E7" s="141" t="n">
-        <v>23</v>
-      </c>
-      <c r="F7" s="141"/>
-      <c r="G7" s="143" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="H7" s="167"/>
-      <c r="I7" s="168" t="n">
-        <v>2004.3775</v>
-      </c>
-      <c r="J7" s="168" t="n">
-        <v>2004.3775</v>
-      </c>
-      <c r="K7" s="146" t="n">
-        <v>8</v>
-      </c>
-      <c r="L7" s="147" t="n">
-        <f aca="false">J7*K7</f>
-        <v>16035.02</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="137" t="s">
-        <v>216</v>
-      </c>
-      <c r="B8" s="138"/>
-      <c r="C8" s="139" t="n">
-        <v>3289</v>
-      </c>
-      <c r="D8" s="166" t="s">
-        <v>244</v>
-      </c>
-      <c r="E8" s="141" t="n">
-        <v>14</v>
-      </c>
-      <c r="F8" s="141"/>
-      <c r="G8" s="143" t="n">
-        <v>9</v>
-      </c>
-      <c r="H8" s="167"/>
-      <c r="I8" s="168" t="n">
-        <v>2111.3775</v>
-      </c>
-      <c r="J8" s="168" t="n">
-        <v>2111.3775</v>
-      </c>
-      <c r="K8" s="146" t="n">
-        <v>8</v>
-      </c>
-      <c r="L8" s="147" t="n">
-        <f aca="false">J8*K8</f>
-        <v>16891.02</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="137" t="s">
-        <v>218</v>
-      </c>
-      <c r="B9" s="138"/>
-      <c r="C9" s="139" t="n">
-        <v>493</v>
-      </c>
-      <c r="D9" s="166" t="s">
-        <v>245</v>
-      </c>
-      <c r="E9" s="141" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" s="141"/>
-      <c r="G9" s="143" t="n">
-        <v>8.8</v>
-      </c>
-      <c r="H9" s="167"/>
-      <c r="I9" s="168" t="n">
-        <v>2364.921</v>
-      </c>
-      <c r="J9" s="168" t="n">
-        <v>2364.921</v>
-      </c>
-      <c r="K9" s="146" t="n">
-        <v>8</v>
-      </c>
-      <c r="L9" s="147" t="n">
-        <f aca="false">J9*K9</f>
-        <v>18919.368</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="137" t="s">
-        <v>220</v>
-      </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="139" t="n">
-        <v>581</v>
-      </c>
-      <c r="D10" s="166" t="s">
-        <v>246</v>
-      </c>
-      <c r="E10" s="141" t="n">
-        <v>50</v>
-      </c>
-      <c r="F10" s="141"/>
-      <c r="G10" s="143" t="n">
-        <v>8.63</v>
-      </c>
-      <c r="H10" s="167"/>
-      <c r="I10" s="168" t="n">
-        <v>1803.913</v>
-      </c>
-      <c r="J10" s="168" t="n">
-        <v>1803.913</v>
-      </c>
-      <c r="K10" s="146" t="n">
-        <v>8</v>
-      </c>
-      <c r="L10" s="147" t="n">
-        <f aca="false">J10*K10</f>
-        <v>14431.304</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="137" t="s">
-        <v>222</v>
-      </c>
-      <c r="B11" s="138"/>
-      <c r="C11" s="139" t="n">
-        <v>396</v>
-      </c>
-      <c r="D11" s="166" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" s="141" t="n">
-        <v>50</v>
-      </c>
-      <c r="F11" s="141"/>
-      <c r="G11" s="143" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="H11" s="167"/>
-      <c r="I11" s="168" t="n">
-        <v>2602.692</v>
-      </c>
-      <c r="J11" s="168" t="n">
-        <v>2602.692</v>
-      </c>
-      <c r="K11" s="146" t="n">
-        <v>4</v>
-      </c>
-      <c r="L11" s="147" t="n">
-        <f aca="false">J11*K11</f>
-        <v>10410.768</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="137" t="s">
-        <v>224</v>
-      </c>
-      <c r="B12" s="138"/>
-      <c r="C12" s="139" t="n">
-        <v>564</v>
-      </c>
-      <c r="D12" s="166" t="s">
-        <v>247</v>
-      </c>
-      <c r="E12" s="141" t="n">
-        <v>50</v>
-      </c>
-      <c r="F12" s="141"/>
-      <c r="G12" s="143" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="H12" s="167"/>
-      <c r="I12" s="168" t="n">
-        <v>4494.42</v>
-      </c>
-      <c r="J12" s="168" t="n">
-        <v>4494.42</v>
-      </c>
-      <c r="K12" s="146" t="n">
-        <v>8</v>
-      </c>
-      <c r="L12" s="147" t="n">
-        <f aca="false">J12*K12</f>
-        <v>35955.36</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="137" t="s">
-        <v>226</v>
-      </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="153" t="n">
-        <v>2490</v>
-      </c>
-      <c r="D13" s="154" t="s">
-        <v>248</v>
-      </c>
-      <c r="E13" s="155" t="n">
-        <v>15</v>
-      </c>
-      <c r="F13" s="155"/>
-      <c r="G13" s="156" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="H13" s="157"/>
-      <c r="I13" s="158" t="n">
-        <v>5372.424</v>
-      </c>
-      <c r="J13" s="158" t="n">
-        <v>5372.424</v>
-      </c>
-      <c r="K13" s="146" t="n">
-        <v>8</v>
-      </c>
-      <c r="L13" s="147" t="n">
-        <f aca="false">J13*K13</f>
-        <v>42979.392</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="137" t="s">
-        <v>228</v>
-      </c>
-      <c r="B14" s="138"/>
-      <c r="C14" s="153" t="n">
-        <v>2936</v>
-      </c>
-      <c r="D14" s="154" t="s">
-        <v>249</v>
-      </c>
-      <c r="E14" s="155" t="n">
-        <v>50</v>
-      </c>
-      <c r="F14" s="155"/>
-      <c r="G14" s="156" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="H14" s="157"/>
-      <c r="I14" s="158" t="n">
-        <v>5525.37</v>
-      </c>
-      <c r="J14" s="158" t="n">
-        <v>5525.37</v>
-      </c>
-      <c r="K14" s="146" t="n">
-        <v>4</v>
-      </c>
-      <c r="L14" s="147" t="n">
-        <f aca="false">J14*K14</f>
-        <v>22101.48</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="137" t="s">
-        <v>230</v>
-      </c>
-      <c r="B15" s="138"/>
-      <c r="C15" s="139" t="n">
-        <v>3787</v>
-      </c>
-      <c r="D15" s="166" t="s">
-        <v>225</v>
-      </c>
-      <c r="E15" s="141" t="n">
-        <v>50</v>
-      </c>
-      <c r="F15" s="141"/>
-      <c r="G15" s="143" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="H15" s="167"/>
-      <c r="I15" s="168" t="n">
-        <v>4557.582</v>
-      </c>
-      <c r="J15" s="168" t="n">
-        <v>4557.582</v>
-      </c>
-      <c r="K15" s="146" t="n">
-        <v>8</v>
-      </c>
-      <c r="L15" s="147" t="n">
-        <f aca="false">J15*K15</f>
-        <v>36460.656</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="137" t="s">
-        <v>232</v>
-      </c>
-      <c r="B16" s="138"/>
-      <c r="C16" s="139" t="n">
-        <v>279</v>
-      </c>
-      <c r="D16" s="166" t="s">
-        <v>250</v>
-      </c>
-      <c r="E16" s="141" t="n">
-        <v>38</v>
-      </c>
-      <c r="F16" s="141"/>
-      <c r="G16" s="143" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="H16" s="167"/>
-      <c r="I16" s="168" t="n">
-        <v>4569.066</v>
-      </c>
-      <c r="J16" s="168" t="n">
-        <v>4569.066</v>
-      </c>
-      <c r="K16" s="146" t="n">
-        <v>8</v>
-      </c>
-      <c r="L16" s="147" t="n">
-        <f aca="false">J16*K16</f>
-        <v>36552.528</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="137" t="s">
-        <v>251</v>
-      </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="139" t="n">
-        <v>579</v>
-      </c>
-      <c r="D17" s="166" t="s">
-        <v>252</v>
-      </c>
-      <c r="E17" s="141" t="n">
-        <v>50</v>
-      </c>
-      <c r="F17" s="141"/>
-      <c r="G17" s="143" t="n">
-        <v>14.46</v>
-      </c>
-      <c r="H17" s="167"/>
-      <c r="I17" s="168" t="n">
-        <v>3433.7682</v>
-      </c>
-      <c r="J17" s="168" t="n">
-        <v>3433.7682</v>
-      </c>
-      <c r="K17" s="146" t="n">
-        <v>8</v>
-      </c>
-      <c r="L17" s="147" t="n">
-        <f aca="false">J17*K17</f>
-        <v>27470.1456</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="137" t="s">
-        <v>253</v>
-      </c>
-      <c r="B18" s="138"/>
-      <c r="C18" s="139" t="n">
-        <v>378</v>
-      </c>
-      <c r="D18" s="166" t="s">
-        <v>227</v>
-      </c>
-      <c r="E18" s="141" t="n">
-        <v>50</v>
-      </c>
-      <c r="F18" s="141"/>
-      <c r="G18" s="143" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="H18" s="167"/>
-      <c r="I18" s="168" t="n">
-        <v>3859.668</v>
-      </c>
-      <c r="J18" s="168" t="n">
-        <v>3859.668</v>
-      </c>
-      <c r="K18" s="146" t="n">
-        <v>8</v>
-      </c>
-      <c r="L18" s="147" t="n">
-        <f aca="false">J18*K18</f>
-        <v>30877.344</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="137" t="s">
-        <v>254</v>
-      </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="139" t="n">
-        <v>2805</v>
-      </c>
-      <c r="D19" s="166" t="s">
-        <v>255</v>
-      </c>
-      <c r="E19" s="141" t="n">
-        <v>50</v>
-      </c>
-      <c r="F19" s="141"/>
-      <c r="G19" s="143" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="H19" s="167"/>
-      <c r="I19" s="168" t="n">
-        <v>4741.326</v>
-      </c>
-      <c r="J19" s="168" t="n">
-        <v>4741.326</v>
-      </c>
-      <c r="K19" s="146" t="n">
-        <v>8</v>
-      </c>
-      <c r="L19" s="147" t="n">
-        <f aca="false">J19*K19</f>
-        <v>37930.608</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>